--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_20_39.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_20_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1475702.271141528</v>
+        <v>1471958.341941205</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5898131.871929461</v>
+        <v>5898131.871929462</v>
       </c>
     </row>
     <row r="9">
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>410.1937988817581</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>421.9182721901103</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.7079110789993</v>
       </c>
       <c r="E11" t="n">
-        <v>417.5942214949872</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>411.7459793965837</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>38.02873281577475</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>255.1815600432281</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,22 +1423,22 @@
         <v>28.2189301890504</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>197.8107631172783</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>72.63164895034323</v>
       </c>
       <c r="V11" t="n">
         <v>347.1480046672111</v>
       </c>
       <c r="W11" t="n">
-        <v>388.9641241447764</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>403.1082628881818</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>392.3604865650425</v>
       </c>
     </row>
     <row r="12">
@@ -1539,16 +1539,16 @@
         <v>156.2176478134695</v>
       </c>
       <c r="F13" t="n">
-        <v>90.86228805519458</v>
+        <v>163.0972075995607</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>151.2509926853062</v>
       </c>
       <c r="H13" t="n">
         <v>119.1778441161766</v>
       </c>
       <c r="I13" t="n">
-        <v>50.62155779981384</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>131.1394972125072</v>
+        <v>17.21562185188969</v>
       </c>
       <c r="T13" t="n">
         <v>227.9819759573268</v>
@@ -1587,7 +1587,7 @@
         <v>263.7599897334438</v>
       </c>
       <c r="V13" t="n">
-        <v>272.2431771499732</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>257.4633644712708</v>
@@ -1596,7 +1596,7 @@
         <v>231.0950612216211</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>213.3026980807322</v>
       </c>
     </row>
     <row r="14">
@@ -1606,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>410.1937988817581</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>421.9182721901103</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>231.6319165136569</v>
       </c>
       <c r="E14" t="n">
         <v>417.5942214949872</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>411.7459793965837</v>
       </c>
       <c r="G14" t="n">
-        <v>45.59347179745613</v>
+        <v>383.664888509017</v>
       </c>
       <c r="H14" t="n">
         <v>255.1815600432281</v>
@@ -1660,13 +1660,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>197.8107631172783</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>347.1480046672111</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1770,19 +1770,19 @@
         <v>158.9933185033067</v>
       </c>
       <c r="D16" t="n">
-        <v>80.55758474646819</v>
+        <v>152.3764369721919</v>
       </c>
       <c r="E16" t="n">
         <v>156.2176478134695</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>163.0972075995607</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>151.2509926853062</v>
       </c>
       <c r="H16" t="n">
-        <v>119.1778441161766</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>131.1394972125072</v>
+        <v>95.24535003971475</v>
       </c>
       <c r="T16" t="n">
         <v>227.9819759573268</v>
@@ -1830,7 +1830,7 @@
         <v>257.4633644712708</v>
       </c>
       <c r="X16" t="n">
-        <v>231.0950612216211</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>213.3026980807322</v>
@@ -1846,10 +1846,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>421.9182721901103</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>419.7079110789993</v>
       </c>
       <c r="E17" t="n">
         <v>417.5942214949872</v>
@@ -1858,7 +1858,7 @@
         <v>411.7459793965837</v>
       </c>
       <c r="G17" t="n">
-        <v>50.18704784389332</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>28.2189301890504</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>197.8107631172783</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>74.06466369462368</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>347.1480046672111</v>
       </c>
       <c r="W17" t="n">
-        <v>388.9641241447764</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>403.1082628881818</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>392.3604865650425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2022,7 +2022,7 @@
         <v>119.1778441161766</v>
       </c>
       <c r="I19" t="n">
-        <v>50.62155779981384</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2058,10 +2058,10 @@
         <v>227.9819759573268</v>
       </c>
       <c r="U19" t="n">
-        <v>84.43474389431017</v>
+        <v>263.7599897334438</v>
       </c>
       <c r="V19" t="n">
-        <v>272.2431771499732</v>
+        <v>143.5394891106534</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2080,19 +2080,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>215.9151685909311</v>
+        <v>410.1937988817581</v>
       </c>
       <c r="C20" t="n">
-        <v>421.9182721901103</v>
+        <v>75.35899963837308</v>
       </c>
       <c r="D20" t="n">
-        <v>419.7079110789993</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>417.5942214949872</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>411.7459793965837</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>28.21893018905039</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>244.6372086654006</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>347.1480046672111</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>388.9641241447764</v>
       </c>
       <c r="X20" t="n">
         <v>403.1082628881818</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>392.3604865650425</v>
       </c>
     </row>
     <row r="21">
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>178.0576566334966</v>
       </c>
       <c r="C22" t="n">
         <v>158.9933185033067</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>152.3764369721919</v>
       </c>
       <c r="E22" t="n">
-        <v>156.2176478134695</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>163.0972075995607</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>44.89647598059021</v>
+        <v>84.39879558774621</v>
       </c>
       <c r="H22" t="n">
         <v>119.1778441161766</v>
       </c>
       <c r="I22" t="n">
-        <v>50.62155779981384</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>410.1937988817581</v>
+        <v>187.9685287557817</v>
       </c>
       <c r="C23" t="n">
         <v>421.9182721901103</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>419.7079110789993</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>417.5942214949872</v>
       </c>
       <c r="F23" t="n">
         <v>411.7459793965837</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>383.664888509017</v>
       </c>
       <c r="H23" t="n">
-        <v>255.1815600432281</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>28.21893018905039</v>
       </c>
       <c r="T23" t="n">
-        <v>197.8107631172783</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>23.13681719774738</v>
+        <v>244.6372086654006</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2383,10 +2383,10 @@
         <v>388.9641241447764</v>
       </c>
       <c r="X23" t="n">
-        <v>403.1082628881818</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>392.3604865650425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2496,7 +2496,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I25" t="n">
-        <v>62.46433369811444</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2563,13 +2563,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H26" t="n">
         <v>267.0243359415286</v>
@@ -2611,19 +2611,19 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
-        <v>333.8315366005841</v>
+        <v>57.41705274269753</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2794,22 +2794,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>324.9413079700252</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H29" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.061706087351</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>9.564820561132327</v>
       </c>
       <c r="W29" t="n">
         <v>400.806900043077</v>
@@ -2860,7 +2860,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -2970,7 +2970,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I31" t="n">
-        <v>62.46433369811444</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>309.0332570169318</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>40.061706087351</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T32" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>205.4692559880877</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3207,7 +3207,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I34" t="n">
-        <v>62.46433369811444</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3271,10 +3271,10 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
         <v>423.5887552948843</v>
@@ -3283,7 +3283,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>209.0988115239272</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3322,19 +3322,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>395.2591101240648</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3438,13 +3438,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>75.68730996688961</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H37" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I37" t="n">
-        <v>62.46433369811444</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T37" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>275.6027656317444</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>119.8461174193189</v>
       </c>
     </row>
     <row r="38">
@@ -3502,19 +3502,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>187.811255239322</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>40.061706087351</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>167.5747902561357</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>173.3745043075732</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3669,10 +3669,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>89.30668535812342</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>163.0937685836068</v>
@@ -3681,7 +3681,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I40" t="n">
-        <v>62.46433369811444</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T40" t="n">
         <v>239.8247518556274</v>
@@ -3720,7 +3720,7 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>342.2011729807489</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H41" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>40.061706087351</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>182.8648834470967</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>107.8171437072174</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>49.34995949258614</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
@@ -3912,13 +3912,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>62.46433369811444</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3988,13 +3988,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>207.3476883602337</v>
+        <v>260.1657271200878</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>40.061706087351</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>87.71416123637758</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
@@ -4143,19 +4143,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H46" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4194,13 +4194,13 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V46" t="n">
-        <v>63.27423025685268</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1181.095939175797</v>
+        <v>897.3340093965403</v>
       </c>
       <c r="C11" t="n">
-        <v>1181.095939175797</v>
+        <v>471.1539364772369</v>
       </c>
       <c r="D11" t="n">
-        <v>1181.095939175797</v>
+        <v>47.20655154895471</v>
       </c>
       <c r="E11" t="n">
-        <v>759.2835942313654</v>
+        <v>47.20655154895471</v>
       </c>
       <c r="F11" t="n">
-        <v>343.3785645378465</v>
+        <v>47.20655154895471</v>
       </c>
       <c r="G11" t="n">
-        <v>304.965703107771</v>
+        <v>47.20655154895471</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895471</v>
       </c>
       <c r="I11" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867021</v>
+        <v>805.4408022867019</v>
       </c>
       <c r="M11" t="n">
         <v>1131.588690455489</v>
@@ -5059,34 +5059,34 @@
         <v>1775.969506973259</v>
       </c>
       <c r="P11" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152527</v>
       </c>
       <c r="Q11" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163595</v>
       </c>
       <c r="R11" t="n">
         <v>2360.327577447736</v>
       </c>
       <c r="S11" t="n">
-        <v>2331.823607559807</v>
+        <v>2331.823607559806</v>
       </c>
       <c r="T11" t="n">
-        <v>2331.823607559807</v>
+        <v>2132.014755926192</v>
       </c>
       <c r="U11" t="n">
-        <v>2331.823607559807</v>
+        <v>2058.649453956148</v>
       </c>
       <c r="V11" t="n">
-        <v>1981.169057390906</v>
+        <v>1707.994903787248</v>
       </c>
       <c r="W11" t="n">
-        <v>1588.276002699213</v>
+        <v>1707.994903787248</v>
       </c>
       <c r="X11" t="n">
-        <v>1181.095939175797</v>
+        <v>1707.994903787248</v>
       </c>
       <c r="Y11" t="n">
-        <v>1181.095939175797</v>
+        <v>1311.671179984175</v>
       </c>
     </row>
     <row r="12">
@@ -5114,34 +5114,34 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895471</v>
       </c>
       <c r="I12" t="n">
-        <v>81.42328772043082</v>
+        <v>81.42328772043081</v>
       </c>
       <c r="J12" t="n">
-        <v>175.3166270668988</v>
+        <v>175.3166270668979</v>
       </c>
       <c r="K12" t="n">
-        <v>335.7952991210689</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L12" t="n">
-        <v>551.5786779960912</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M12" t="n">
-        <v>803.3877032987884</v>
+        <v>803.3877032987876</v>
       </c>
       <c r="N12" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O12" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P12" t="n">
-        <v>1488.088567599445</v>
+        <v>1488.088567599444</v>
       </c>
       <c r="Q12" t="n">
-        <v>1614.947661807679</v>
+        <v>1614.947661807678</v>
       </c>
       <c r="R12" t="n">
         <v>1676.651116233592</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>782.8116962561803</v>
+        <v>957.4221552762394</v>
       </c>
       <c r="C13" t="n">
-        <v>622.2123846366785</v>
+        <v>796.8228436567376</v>
       </c>
       <c r="D13" t="n">
-        <v>468.2967917354745</v>
+        <v>642.9072507555336</v>
       </c>
       <c r="E13" t="n">
-        <v>310.5011878834851</v>
+        <v>485.1116469035442</v>
       </c>
       <c r="F13" t="n">
-        <v>218.7210989388441</v>
+        <v>320.3669927625737</v>
       </c>
       <c r="G13" t="n">
-        <v>218.7210989388441</v>
+        <v>167.5882122723655</v>
       </c>
       <c r="H13" t="n">
-        <v>98.33943821543335</v>
+        <v>47.20655154895471</v>
       </c>
       <c r="I13" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895471</v>
       </c>
       <c r="J13" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K13" t="n">
-        <v>564.2504555545214</v>
+        <v>289.4920009833859</v>
       </c>
       <c r="L13" t="n">
-        <v>688.1212571728194</v>
+        <v>481.9462364092373</v>
       </c>
       <c r="M13" t="n">
-        <v>1272.302332591134</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N13" t="n">
-        <v>1842.060047552668</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O13" t="n">
-        <v>1959.82592890043</v>
+        <v>2173.320157362629</v>
       </c>
       <c r="P13" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q13" t="n">
-        <v>2343.856484770969</v>
+        <v>2343.856484770968</v>
       </c>
       <c r="R13" t="n">
         <v>2360.327577447736</v>
       </c>
       <c r="S13" t="n">
-        <v>2227.863438849244</v>
+        <v>2342.938060425625</v>
       </c>
       <c r="T13" t="n">
-        <v>1997.578614649924</v>
+        <v>2112.653236226305</v>
       </c>
       <c r="U13" t="n">
-        <v>1731.15438259594</v>
+        <v>1846.229004172321</v>
       </c>
       <c r="V13" t="n">
-        <v>1456.161274363644</v>
+        <v>1846.229004172321</v>
       </c>
       <c r="W13" t="n">
-        <v>1196.097269847208</v>
+        <v>1586.164999655886</v>
       </c>
       <c r="X13" t="n">
-        <v>962.6679150778941</v>
+        <v>1352.735644886572</v>
       </c>
       <c r="Y13" t="n">
-        <v>962.6679150778941</v>
+        <v>1137.278374097953</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1199.012132888128</v>
+        <v>1764.195002011048</v>
       </c>
       <c r="C14" t="n">
-        <v>772.8320599688249</v>
+        <v>1764.195002011048</v>
       </c>
       <c r="D14" t="n">
-        <v>772.8320599688249</v>
+        <v>1530.223369168971</v>
       </c>
       <c r="E14" t="n">
-        <v>351.0197150243933</v>
+        <v>1108.411024224539</v>
       </c>
       <c r="F14" t="n">
-        <v>351.0197150243933</v>
+        <v>692.5059945310204</v>
       </c>
       <c r="G14" t="n">
         <v>304.965703107771</v>
@@ -5275,22 +5275,22 @@
         <v>47.20655154895472</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001358</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435809</v>
+        <v>276.053277043581</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L14" t="n">
-        <v>805.4408022867021</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M14" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N14" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O14" t="n">
         <v>1775.969506973259</v>
@@ -5308,22 +5308,22 @@
         <v>2360.327577447736</v>
       </c>
       <c r="T14" t="n">
-        <v>2360.327577447736</v>
+        <v>2160.518725814122</v>
       </c>
       <c r="U14" t="n">
-        <v>2360.327577447736</v>
+        <v>2160.518725814122</v>
       </c>
       <c r="V14" t="n">
-        <v>2009.673027278836</v>
+        <v>2160.518725814122</v>
       </c>
       <c r="W14" t="n">
-        <v>2009.673027278836</v>
+        <v>2160.518725814122</v>
       </c>
       <c r="X14" t="n">
-        <v>2009.673027278836</v>
+        <v>2160.518725814122</v>
       </c>
       <c r="Y14" t="n">
-        <v>1613.349303475763</v>
+        <v>1764.195002011048</v>
       </c>
     </row>
     <row r="15">
@@ -5360,25 +5360,25 @@
         <v>175.3166270668979</v>
       </c>
       <c r="K15" t="n">
-        <v>335.7952991210689</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L15" t="n">
-        <v>551.5786779960912</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M15" t="n">
-        <v>803.3877032987884</v>
+        <v>803.3877032987876</v>
       </c>
       <c r="N15" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O15" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P15" t="n">
-        <v>1488.088567599445</v>
+        <v>1488.088567599444</v>
       </c>
       <c r="Q15" t="n">
-        <v>1614.947661807679</v>
+        <v>1614.947661807678</v>
       </c>
       <c r="R15" t="n">
         <v>1676.651116233592</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>567.3544254675619</v>
+        <v>837.0404945528287</v>
       </c>
       <c r="C16" t="n">
-        <v>406.7551138480601</v>
+        <v>676.4411829333269</v>
       </c>
       <c r="D16" t="n">
-        <v>325.3838161243549</v>
+        <v>522.5255900321229</v>
       </c>
       <c r="E16" t="n">
-        <v>167.5882122723655</v>
+        <v>364.7299861801334</v>
       </c>
       <c r="F16" t="n">
-        <v>167.5882122723655</v>
+        <v>199.985332039163</v>
       </c>
       <c r="G16" t="n">
-        <v>167.5882122723655</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H16" t="n">
         <v>47.20655154895472</v>
@@ -5436,25 +5436,25 @@
         <v>47.20655154895472</v>
       </c>
       <c r="J16" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K16" t="n">
-        <v>564.2504555545214</v>
+        <v>359.5348022487599</v>
       </c>
       <c r="L16" t="n">
-        <v>688.1212571728194</v>
+        <v>901.6154856350189</v>
       </c>
       <c r="M16" t="n">
-        <v>1272.302332591134</v>
+        <v>1485.796561053334</v>
       </c>
       <c r="N16" t="n">
-        <v>1399.801244395024</v>
+        <v>2055.554276014868</v>
       </c>
       <c r="O16" t="n">
-        <v>1657.620488527956</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P16" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q16" t="n">
         <v>2343.856484770969</v>
@@ -5463,25 +5463,25 @@
         <v>2360.327577447736</v>
       </c>
       <c r="S16" t="n">
-        <v>2227.863438849244</v>
+        <v>2264.120153165196</v>
       </c>
       <c r="T16" t="n">
-        <v>1997.578614649924</v>
+        <v>2033.835328965876</v>
       </c>
       <c r="U16" t="n">
-        <v>1731.15438259594</v>
+        <v>1767.411096911892</v>
       </c>
       <c r="V16" t="n">
-        <v>1456.161274363644</v>
+        <v>1492.417988679596</v>
       </c>
       <c r="W16" t="n">
-        <v>1196.097269847208</v>
+        <v>1232.353984163161</v>
       </c>
       <c r="X16" t="n">
-        <v>962.6679150778941</v>
+        <v>1232.353984163161</v>
       </c>
       <c r="Y16" t="n">
-        <v>747.2106442892757</v>
+        <v>1016.896713374543</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>935.6179139080095</v>
+        <v>1735.051384034491</v>
       </c>
       <c r="C17" t="n">
-        <v>935.6179139080095</v>
+        <v>1308.871311115187</v>
       </c>
       <c r="D17" t="n">
-        <v>935.6179139080095</v>
+        <v>884.9239261869052</v>
       </c>
       <c r="E17" t="n">
-        <v>513.805568963578</v>
+        <v>463.1115812424737</v>
       </c>
       <c r="F17" t="n">
-        <v>97.90053927005908</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G17" t="n">
         <v>47.20655154895472</v>
@@ -5515,10 +5515,10 @@
         <v>118.4065018001353</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228014</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L17" t="n">
         <v>805.440802286702</v>
@@ -5542,25 +5542,25 @@
         <v>2360.327577447736</v>
       </c>
       <c r="S17" t="n">
-        <v>2331.823607559807</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T17" t="n">
-        <v>2132.014755926192</v>
+        <v>2160.518725814122</v>
       </c>
       <c r="U17" t="n">
-        <v>2132.014755926192</v>
+        <v>2085.705934203391</v>
       </c>
       <c r="V17" t="n">
-        <v>2132.014755926192</v>
+        <v>1735.051384034491</v>
       </c>
       <c r="W17" t="n">
-        <v>1739.121701234499</v>
+        <v>1735.051384034491</v>
       </c>
       <c r="X17" t="n">
-        <v>1331.941637711083</v>
+        <v>1735.051384034491</v>
       </c>
       <c r="Y17" t="n">
-        <v>935.6179139080095</v>
+        <v>1735.051384034491</v>
       </c>
     </row>
     <row r="18">
@@ -5597,22 +5597,22 @@
         <v>175.316627066898</v>
       </c>
       <c r="K18" t="n">
-        <v>335.7952991210681</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L18" t="n">
-        <v>551.5786779960904</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M18" t="n">
-        <v>803.3877032987878</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N18" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O18" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P18" t="n">
-        <v>1488.088567599444</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q18" t="n">
         <v>1614.947661807679</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1008.555041942718</v>
+        <v>957.4221552762394</v>
       </c>
       <c r="C19" t="n">
-        <v>847.9557303232164</v>
+        <v>796.8228436567376</v>
       </c>
       <c r="D19" t="n">
-        <v>694.0401374220123</v>
+        <v>642.9072507555336</v>
       </c>
       <c r="E19" t="n">
-        <v>536.2445335700229</v>
+        <v>485.1116469035442</v>
       </c>
       <c r="F19" t="n">
-        <v>371.4998794290524</v>
+        <v>320.3669927625737</v>
       </c>
       <c r="G19" t="n">
-        <v>218.7210989388441</v>
+        <v>167.5882122723655</v>
       </c>
       <c r="H19" t="n">
-        <v>98.33943821543335</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I19" t="n">
         <v>47.20655154895472</v>
@@ -5676,22 +5676,22 @@
         <v>192.6919004158277</v>
       </c>
       <c r="K19" t="n">
-        <v>289.4920009833859</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L19" t="n">
-        <v>413.3628026016838</v>
+        <v>688.1212571728194</v>
       </c>
       <c r="M19" t="n">
-        <v>997.5438780199984</v>
+        <v>1272.302332591134</v>
       </c>
       <c r="N19" t="n">
-        <v>1567.301592981533</v>
+        <v>1399.801244395024</v>
       </c>
       <c r="O19" t="n">
-        <v>2104.736723555076</v>
+        <v>1937.236374968567</v>
       </c>
       <c r="P19" t="n">
-        <v>2205.505779732759</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q19" t="n">
         <v>2343.856484770969</v>
@@ -5706,19 +5706,19 @@
         <v>1997.578614649924</v>
       </c>
       <c r="U19" t="n">
-        <v>1912.290994554661</v>
+        <v>1731.15438259594</v>
       </c>
       <c r="V19" t="n">
-        <v>1637.297886322365</v>
+        <v>1586.164999655886</v>
       </c>
       <c r="W19" t="n">
-        <v>1637.297886322365</v>
+        <v>1586.164999655886</v>
       </c>
       <c r="X19" t="n">
-        <v>1403.86853155305</v>
+        <v>1352.735644886572</v>
       </c>
       <c r="Y19" t="n">
-        <v>1188.411260764432</v>
+        <v>1137.278374097953</v>
       </c>
     </row>
     <row r="20">
@@ -5728,46 +5728,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1735.051384034491</v>
+        <v>123.326753203877</v>
       </c>
       <c r="C20" t="n">
-        <v>1308.871311115187</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="D20" t="n">
-        <v>884.9239261869052</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="E20" t="n">
-        <v>463.1115812424737</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="F20" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G20" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H20" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435805</v>
+        <v>276.053277043581</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L20" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M20" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N20" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O20" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P20" t="n">
         <v>2043.069798152528</v>
@@ -5776,28 +5776,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R20" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S20" t="n">
-        <v>2360.327577447736</v>
+        <v>2331.823607559807</v>
       </c>
       <c r="T20" t="n">
-        <v>2360.327577447736</v>
+        <v>2331.823607559807</v>
       </c>
       <c r="U20" t="n">
-        <v>2360.327577447736</v>
+        <v>2084.715315978594</v>
       </c>
       <c r="V20" t="n">
-        <v>2360.327577447736</v>
+        <v>1734.060765809694</v>
       </c>
       <c r="W20" t="n">
-        <v>2360.327577447736</v>
+        <v>1341.167711118001</v>
       </c>
       <c r="X20" t="n">
-        <v>1953.14751392432</v>
+        <v>933.9876475945848</v>
       </c>
       <c r="Y20" t="n">
-        <v>1953.14751392432</v>
+        <v>537.6639237915115</v>
       </c>
     </row>
     <row r="21">
@@ -5810,7 +5810,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C21" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D21" t="n">
         <v>341.0245550495863</v>
@@ -5822,22 +5822,22 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G21" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H21" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I21" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043085</v>
       </c>
       <c r="J21" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K21" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L21" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M21" t="n">
         <v>803.387703298788</v>
@@ -5886,46 +5886,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>747.2106442892757</v>
+        <v>567.3544254675624</v>
       </c>
       <c r="C22" t="n">
-        <v>586.6113326697739</v>
+        <v>406.7551138480606</v>
       </c>
       <c r="D22" t="n">
-        <v>586.6113326697739</v>
+        <v>252.8395209468566</v>
       </c>
       <c r="E22" t="n">
-        <v>428.8157288177845</v>
+        <v>252.8395209468566</v>
       </c>
       <c r="F22" t="n">
-        <v>264.071074676814</v>
+        <v>252.8395209468566</v>
       </c>
       <c r="G22" t="n">
-        <v>218.7210989388441</v>
+        <v>167.5882122723655</v>
       </c>
       <c r="H22" t="n">
-        <v>98.33943821543335</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I22" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J22" t="n">
-        <v>106.1122152511378</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K22" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L22" t="n">
-        <v>385.9158168003452</v>
+        <v>733.4227107706873</v>
       </c>
       <c r="M22" t="n">
-        <v>970.0968922186598</v>
+        <v>1317.603786189002</v>
       </c>
       <c r="N22" t="n">
-        <v>1539.854607180194</v>
+        <v>1887.361501150536</v>
       </c>
       <c r="O22" t="n">
-        <v>1657.620488527956</v>
+        <v>2005.127382498298</v>
       </c>
       <c r="P22" t="n">
         <v>2105.896438675981</v>
@@ -5934,7 +5934,7 @@
         <v>2343.856484770969</v>
       </c>
       <c r="R22" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S22" t="n">
         <v>2227.863438849244</v>
@@ -5949,13 +5949,13 @@
         <v>1456.161274363644</v>
       </c>
       <c r="W22" t="n">
-        <v>1196.097269847208</v>
+        <v>1196.097269847209</v>
       </c>
       <c r="X22" t="n">
-        <v>962.6679150778941</v>
+        <v>962.6679150778946</v>
       </c>
       <c r="Y22" t="n">
-        <v>747.2106442892757</v>
+        <v>747.2106442892762</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1159.716859086599</v>
+        <v>2135.257728823745</v>
       </c>
       <c r="C23" t="n">
-        <v>733.5367861672951</v>
+        <v>1709.077655904442</v>
       </c>
       <c r="D23" t="n">
-        <v>733.5367861672951</v>
+        <v>1285.13027097616</v>
       </c>
       <c r="E23" t="n">
-        <v>733.5367861672951</v>
+        <v>863.3179260317283</v>
       </c>
       <c r="F23" t="n">
-        <v>317.6317564737762</v>
+        <v>447.4128963382094</v>
       </c>
       <c r="G23" t="n">
-        <v>317.6317564737762</v>
+        <v>59.87260491495994</v>
       </c>
       <c r="H23" t="n">
         <v>59.87260491495994</v>
@@ -5989,52 +5989,52 @@
         <v>131.0725551661405</v>
       </c>
       <c r="J23" t="n">
-        <v>288.7193304095858</v>
+        <v>723.9740178625037</v>
       </c>
       <c r="K23" t="n">
-        <v>524.9909807888066</v>
+        <v>1145.627595723062</v>
       </c>
       <c r="L23" t="n">
-        <v>818.1068556527073</v>
+        <v>1438.743470586963</v>
       </c>
       <c r="M23" t="n">
-        <v>1144.254743821494</v>
+        <v>1764.89135875575</v>
       </c>
       <c r="N23" t="n">
-        <v>1475.680045797972</v>
+        <v>2096.316660732227</v>
       </c>
       <c r="O23" t="n">
-        <v>1788.635560339264</v>
+        <v>2409.27217527352</v>
       </c>
       <c r="P23" t="n">
-        <v>2507.218401699732</v>
+        <v>2676.372466452789</v>
       </c>
       <c r="Q23" t="n">
-        <v>2707.7995967108</v>
+        <v>2876.953661463856</v>
       </c>
       <c r="R23" t="n">
         <v>2993.630245747997</v>
       </c>
       <c r="S23" t="n">
-        <v>2993.630245747997</v>
+        <v>2965.126275860067</v>
       </c>
       <c r="T23" t="n">
-        <v>2793.821394114383</v>
+        <v>2965.126275860067</v>
       </c>
       <c r="U23" t="n">
-        <v>2770.450871692416</v>
+        <v>2718.017984278855</v>
       </c>
       <c r="V23" t="n">
-        <v>2770.450871692416</v>
+        <v>2718.017984278855</v>
       </c>
       <c r="W23" t="n">
-        <v>2377.557817000722</v>
+        <v>2325.124929587161</v>
       </c>
       <c r="X23" t="n">
-        <v>1970.377753477306</v>
+        <v>2325.124929587161</v>
       </c>
       <c r="Y23" t="n">
-        <v>1574.054029674233</v>
+        <v>2325.124929587161</v>
       </c>
     </row>
     <row r="24">
@@ -6071,7 +6071,7 @@
         <v>187.9826804329032</v>
       </c>
       <c r="K24" t="n">
-        <v>348.4613524870733</v>
+        <v>348.4613524870734</v>
       </c>
       <c r="L24" t="n">
         <v>564.2447313620956</v>
@@ -6147,16 +6147,16 @@
         <v>59.87260491495994</v>
       </c>
       <c r="J25" t="n">
-        <v>118.778268617143</v>
+        <v>205.3579537818329</v>
       </c>
       <c r="K25" t="n">
-        <v>490.3368237558368</v>
+        <v>469.7712501553982</v>
       </c>
       <c r="L25" t="n">
-        <v>1032.417507142096</v>
+        <v>593.6420517736962</v>
       </c>
       <c r="M25" t="n">
-        <v>1622.505766661538</v>
+        <v>1183.730311293139</v>
       </c>
       <c r="N25" t="n">
         <v>1753.488026254673</v>
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1631.513843603974</v>
+        <v>2464.791279766202</v>
       </c>
       <c r="C26" t="n">
-        <v>1193.371370787397</v>
+        <v>2026.648806949625</v>
       </c>
       <c r="D26" t="n">
-        <v>757.4615859618418</v>
+        <v>1590.739022124069</v>
       </c>
       <c r="E26" t="n">
-        <v>757.4615859618418</v>
+        <v>1156.964277282364</v>
       </c>
       <c r="F26" t="n">
-        <v>329.5941563710495</v>
+        <v>729.0968476915723</v>
       </c>
       <c r="G26" t="n">
         <v>329.5941563710495</v>
@@ -6226,25 +6226,25 @@
         <v>131.0725551661405</v>
       </c>
       <c r="J26" t="n">
-        <v>288.7193304095858</v>
+        <v>723.9740178625037</v>
       </c>
       <c r="K26" t="n">
-        <v>524.9909807888067</v>
+        <v>960.2456682417247</v>
       </c>
       <c r="L26" t="n">
-        <v>818.1068556527073</v>
+        <v>1253.361543105625</v>
       </c>
       <c r="M26" t="n">
-        <v>1144.254743821494</v>
+        <v>1579.509431274412</v>
       </c>
       <c r="N26" t="n">
-        <v>1475.680045797972</v>
+        <v>1910.93473325089</v>
       </c>
       <c r="O26" t="n">
-        <v>1788.635560339264</v>
+        <v>2223.890247792182</v>
       </c>
       <c r="P26" t="n">
-        <v>2507.218401699732</v>
+        <v>2490.990538971451</v>
       </c>
       <c r="Q26" t="n">
         <v>2707.7995967108</v>
@@ -6259,19 +6259,19 @@
         <v>2781.858994217109</v>
       </c>
       <c r="U26" t="n">
-        <v>2781.858994217109</v>
+        <v>2522.788302738623</v>
       </c>
       <c r="V26" t="n">
-        <v>2444.655421893287</v>
+        <v>2464.791279766202</v>
       </c>
       <c r="W26" t="n">
-        <v>2039.79996730432</v>
+        <v>2464.791279766202</v>
       </c>
       <c r="X26" t="n">
-        <v>2039.79996730432</v>
+        <v>2464.791279766202</v>
       </c>
       <c r="Y26" t="n">
-        <v>1631.513843603974</v>
+        <v>2464.791279766202</v>
       </c>
     </row>
     <row r="27">
@@ -6287,34 +6287,34 @@
         <v>448.7808972690382</v>
       </c>
       <c r="D27" t="n">
-        <v>353.6906084155914</v>
+        <v>353.6906084155915</v>
       </c>
       <c r="E27" t="n">
-        <v>259.5701937425451</v>
+        <v>259.5701937425452</v>
       </c>
       <c r="F27" t="n">
-        <v>176.1863553587067</v>
+        <v>176.1863553587068</v>
       </c>
       <c r="G27" t="n">
-        <v>91.8152549483637</v>
+        <v>91.81525494836369</v>
       </c>
       <c r="H27" t="n">
         <v>59.87260491495994</v>
       </c>
       <c r="I27" t="n">
-        <v>94.08934108643605</v>
+        <v>94.08934108643598</v>
       </c>
       <c r="J27" t="n">
-        <v>187.9826804329032</v>
+        <v>187.9826804329031</v>
       </c>
       <c r="K27" t="n">
-        <v>348.4613524870734</v>
+        <v>348.4613524870733</v>
       </c>
       <c r="L27" t="n">
         <v>564.2447313620956</v>
       </c>
       <c r="M27" t="n">
-        <v>816.0537566647931</v>
+        <v>816.053756664793</v>
       </c>
       <c r="N27" t="n">
         <v>1074.527417586113</v>
@@ -6363,13 +6363,13 @@
         <v>1104.957894589636</v>
       </c>
       <c r="C28" t="n">
-        <v>932.3961830728614</v>
+        <v>932.3961830728613</v>
       </c>
       <c r="D28" t="n">
         <v>766.5181902743841</v>
       </c>
       <c r="E28" t="n">
-        <v>596.7601865251214</v>
+        <v>596.7601865251213</v>
       </c>
       <c r="F28" t="n">
         <v>420.0531324868776</v>
@@ -6384,16 +6384,16 @@
         <v>59.87260491495994</v>
       </c>
       <c r="J28" t="n">
-        <v>118.7782686171431</v>
+        <v>205.3579537818329</v>
       </c>
       <c r="K28" t="n">
-        <v>490.3368237558368</v>
+        <v>576.9165089205267</v>
       </c>
       <c r="L28" t="n">
-        <v>614.2076253741348</v>
+        <v>1118.997192306786</v>
       </c>
       <c r="M28" t="n">
-        <v>1204.295884893577</v>
+        <v>1249.601584645315</v>
       </c>
       <c r="N28" t="n">
         <v>1753.488026254673</v>
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1491.095135937343</v>
+        <v>1325.385198642852</v>
       </c>
       <c r="C29" t="n">
-        <v>1491.095135937343</v>
+        <v>887.2427258262751</v>
       </c>
       <c r="D29" t="n">
-        <v>1491.095135937343</v>
+        <v>887.2427258262751</v>
       </c>
       <c r="E29" t="n">
-        <v>1057.320391095638</v>
+        <v>887.2427258262751</v>
       </c>
       <c r="F29" t="n">
-        <v>729.0968476915723</v>
+        <v>459.3752962354828</v>
       </c>
       <c r="G29" t="n">
-        <v>329.5941563710495</v>
+        <v>59.87260491495994</v>
       </c>
       <c r="H29" t="n">
         <v>59.87260491495994</v>
@@ -6463,22 +6463,22 @@
         <v>131.0725551661405</v>
       </c>
       <c r="J29" t="n">
-        <v>288.7193304095858</v>
+        <v>404.7041099004329</v>
       </c>
       <c r="K29" t="n">
-        <v>524.9909807888066</v>
+        <v>1145.627595723062</v>
       </c>
       <c r="L29" t="n">
-        <v>818.1068556527073</v>
+        <v>1438.743470586963</v>
       </c>
       <c r="M29" t="n">
-        <v>1144.254743821494</v>
+        <v>1764.89135875575</v>
       </c>
       <c r="N29" t="n">
-        <v>1622.493466088867</v>
+        <v>2096.316660732227</v>
       </c>
       <c r="O29" t="n">
-        <v>1935.44898063016</v>
+        <v>2409.27217527352</v>
       </c>
       <c r="P29" t="n">
         <v>2676.372466452789</v>
@@ -6490,25 +6490,25 @@
         <v>2993.630245747997</v>
       </c>
       <c r="S29" t="n">
-        <v>2953.163875962794</v>
+        <v>2993.630245747997</v>
       </c>
       <c r="T29" t="n">
-        <v>2741.392624431906</v>
+        <v>2993.630245747997</v>
       </c>
       <c r="U29" t="n">
-        <v>2741.392624431906</v>
+        <v>2993.630245747997</v>
       </c>
       <c r="V29" t="n">
-        <v>2741.392624431906</v>
+        <v>2983.968810837762</v>
       </c>
       <c r="W29" t="n">
-        <v>2336.53716984294</v>
+        <v>2579.113356248795</v>
       </c>
       <c r="X29" t="n">
-        <v>1917.394706422251</v>
+        <v>2159.970892828106</v>
       </c>
       <c r="Y29" t="n">
-        <v>1917.394706422251</v>
+        <v>1751.684769127759</v>
       </c>
     </row>
     <row r="30">
@@ -6545,7 +6545,7 @@
         <v>187.9826804329032</v>
       </c>
       <c r="K30" t="n">
-        <v>348.4613524870733</v>
+        <v>348.4613524870734</v>
       </c>
       <c r="L30" t="n">
         <v>564.2447313620956</v>
@@ -6600,13 +6600,13 @@
         <v>1104.957894589636</v>
       </c>
       <c r="C31" t="n">
-        <v>932.3961830728613</v>
+        <v>932.3961830728614</v>
       </c>
       <c r="D31" t="n">
         <v>766.5181902743841</v>
       </c>
       <c r="E31" t="n">
-        <v>596.7601865251213</v>
+        <v>596.7601865251214</v>
       </c>
       <c r="F31" t="n">
         <v>420.0531324868776</v>
@@ -6621,13 +6621,13 @@
         <v>59.87260491495994</v>
       </c>
       <c r="J31" t="n">
-        <v>118.778268617143</v>
+        <v>139.4866804296565</v>
       </c>
       <c r="K31" t="n">
-        <v>215.5783691847012</v>
+        <v>511.0452355683503</v>
       </c>
       <c r="L31" t="n">
-        <v>593.6420517736962</v>
+        <v>1053.125918954609</v>
       </c>
       <c r="M31" t="n">
         <v>1183.730311293139</v>
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>931.7898225732415</v>
+        <v>2107.721842057197</v>
       </c>
       <c r="C32" t="n">
-        <v>493.6473497566648</v>
+        <v>1669.579369240621</v>
       </c>
       <c r="D32" t="n">
-        <v>493.6473497566648</v>
+        <v>1233.669584415065</v>
       </c>
       <c r="E32" t="n">
-        <v>59.87260491495994</v>
+        <v>799.8948395733601</v>
       </c>
       <c r="F32" t="n">
-        <v>59.87260491495994</v>
+        <v>372.0274099825678</v>
       </c>
       <c r="G32" t="n">
         <v>59.87260491495994</v>
@@ -6700,25 +6700,25 @@
         <v>131.0725551661405</v>
       </c>
       <c r="J32" t="n">
-        <v>723.9740178625037</v>
+        <v>288.7193304095858</v>
       </c>
       <c r="K32" t="n">
-        <v>960.2456682417246</v>
+        <v>524.9909807888067</v>
       </c>
       <c r="L32" t="n">
-        <v>1253.361543105625</v>
+        <v>818.1068556527073</v>
       </c>
       <c r="M32" t="n">
-        <v>1579.509431274412</v>
+        <v>1144.254743821494</v>
       </c>
       <c r="N32" t="n">
-        <v>1910.93473325089</v>
+        <v>1475.680045797972</v>
       </c>
       <c r="O32" t="n">
-        <v>2223.890247792182</v>
+        <v>1788.635560339264</v>
       </c>
       <c r="P32" t="n">
-        <v>2676.372466452789</v>
+        <v>2136.030175641227</v>
       </c>
       <c r="Q32" t="n">
         <v>2876.953661463856</v>
@@ -6730,22 +6730,22 @@
         <v>2953.163875962794</v>
       </c>
       <c r="T32" t="n">
-        <v>2741.392624431906</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="U32" t="n">
-        <v>2533.847921413636</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="V32" t="n">
-        <v>2171.230971347462</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="W32" t="n">
-        <v>1766.375516758496</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="X32" t="n">
-        <v>1766.375516758496</v>
+        <v>2534.021412542105</v>
       </c>
       <c r="Y32" t="n">
-        <v>1358.089393058149</v>
+        <v>2534.021412542105</v>
       </c>
     </row>
     <row r="33">
@@ -6782,7 +6782,7 @@
         <v>187.9826804329032</v>
       </c>
       <c r="K33" t="n">
-        <v>348.4613524870733</v>
+        <v>348.4613524870734</v>
       </c>
       <c r="L33" t="n">
         <v>564.2447313620956</v>
@@ -6858,19 +6858,19 @@
         <v>59.87260491495994</v>
       </c>
       <c r="J34" t="n">
-        <v>205.3579537818329</v>
+        <v>139.4866804296565</v>
       </c>
       <c r="K34" t="n">
-        <v>576.9165089205267</v>
+        <v>511.0452355683503</v>
       </c>
       <c r="L34" t="n">
-        <v>1118.997192306786</v>
+        <v>1053.125918954609</v>
       </c>
       <c r="M34" t="n">
-        <v>1709.085451826228</v>
+        <v>1183.730311293139</v>
       </c>
       <c r="N34" t="n">
-        <v>2173.157275480454</v>
+        <v>1753.488026254673</v>
       </c>
       <c r="O34" t="n">
         <v>2290.923156828216</v>
@@ -6913,31 +6913,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>874.5766724602698</v>
+        <v>1955.47212285877</v>
       </c>
       <c r="C35" t="n">
-        <v>874.5766724602698</v>
+        <v>1955.47212285877</v>
       </c>
       <c r="D35" t="n">
-        <v>874.5766724602698</v>
+        <v>1519.562338033214</v>
       </c>
       <c r="E35" t="n">
-        <v>874.5766724602698</v>
+        <v>1085.787593191509</v>
       </c>
       <c r="F35" t="n">
-        <v>446.7092428694776</v>
+        <v>657.9201636007172</v>
       </c>
       <c r="G35" t="n">
-        <v>47.20655154895472</v>
+        <v>258.4174722801943</v>
       </c>
       <c r="H35" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I35" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J35" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K35" t="n">
         <v>512.3249274228015</v>
@@ -6961,28 +6961,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R35" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S35" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T35" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U35" t="n">
-        <v>2101.25688596925</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="V35" t="n">
-        <v>2101.25688596925</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="W35" t="n">
-        <v>1702.005259581306</v>
+        <v>1955.47212285877</v>
       </c>
       <c r="X35" t="n">
-        <v>1282.862796160616</v>
+        <v>1955.47212285877</v>
       </c>
       <c r="Y35" t="n">
-        <v>874.5766724602698</v>
+        <v>1955.47212285877</v>
       </c>
     </row>
     <row r="36">
@@ -7010,7 +7010,7 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H36" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I36" t="n">
         <v>81.42328772043084</v>
@@ -7019,22 +7019,22 @@
         <v>175.316627066898</v>
       </c>
       <c r="K36" t="n">
-        <v>335.7952991210681</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L36" t="n">
-        <v>551.5786779960904</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M36" t="n">
-        <v>803.3877032987878</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N36" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O36" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P36" t="n">
-        <v>1488.088567599444</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q36" t="n">
         <v>1614.947661807679</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1004.002489085533</v>
+        <v>1092.291841223631</v>
       </c>
       <c r="C37" t="n">
-        <v>831.4407775687581</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="D37" t="n">
-        <v>665.5627847702808</v>
+        <v>753.852136908379</v>
       </c>
       <c r="E37" t="n">
-        <v>495.8047810210181</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F37" t="n">
-        <v>319.0977269827742</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G37" t="n">
         <v>242.6458987333908</v>
@@ -7092,7 +7092,7 @@
         <v>110.3018381127067</v>
       </c>
       <c r="I37" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J37" t="n">
         <v>192.6919004158277</v>
@@ -7101,46 +7101,46 @@
         <v>289.4920009833859</v>
       </c>
       <c r="L37" t="n">
-        <v>831.5726843696448</v>
+        <v>413.3628026016838</v>
       </c>
       <c r="M37" t="n">
-        <v>962.1770767081742</v>
+        <v>997.5438780199985</v>
       </c>
       <c r="N37" t="n">
-        <v>1531.934791669708</v>
+        <v>1567.301592981533</v>
       </c>
       <c r="O37" t="n">
-        <v>2069.369922243251</v>
+        <v>2005.127382498298</v>
       </c>
       <c r="P37" t="n">
-        <v>2274.089213540313</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q37" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R37" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S37" t="n">
         <v>2215.901038951971</v>
       </c>
       <c r="T37" t="n">
-        <v>1973.653814855378</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="U37" t="n">
-        <v>1695.267182904121</v>
+        <v>1937.514407000714</v>
       </c>
       <c r="V37" t="n">
-        <v>1695.267182904121</v>
+        <v>1650.558898871144</v>
       </c>
       <c r="W37" t="n">
-        <v>1423.240778490412</v>
+        <v>1650.558898871144</v>
       </c>
       <c r="X37" t="n">
-        <v>1423.240778490412</v>
+        <v>1405.167144204557</v>
       </c>
       <c r="Y37" t="n">
-        <v>1195.82110780452</v>
+        <v>1284.110459942618</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>908.8487259814518</v>
+        <v>1106.599419841793</v>
       </c>
       <c r="C38" t="n">
-        <v>908.8487259814518</v>
+        <v>1106.599419841793</v>
       </c>
       <c r="D38" t="n">
-        <v>908.8487259814518</v>
+        <v>670.6896350162374</v>
       </c>
       <c r="E38" t="n">
-        <v>475.073981139747</v>
+        <v>236.9148901745326</v>
       </c>
       <c r="F38" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G38" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H38" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I38" t="n">
         <v>118.4065018001353</v>
@@ -7180,7 +7180,7 @@
         <v>512.3249274228015</v>
       </c>
       <c r="L38" t="n">
-        <v>805.4408022867021</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M38" t="n">
         <v>1131.588690455489</v>
@@ -7198,28 +7198,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R38" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S38" t="n">
-        <v>2319.861207662533</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T38" t="n">
-        <v>2108.089956131646</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U38" t="n">
-        <v>1849.01926465316</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="V38" t="n">
-        <v>1486.402314586986</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="W38" t="n">
-        <v>1486.402314586986</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="X38" t="n">
-        <v>1317.134849681798</v>
+        <v>1941.185114027047</v>
       </c>
       <c r="Y38" t="n">
-        <v>908.8487259814518</v>
+        <v>1532.898990326701</v>
       </c>
     </row>
     <row r="39">
@@ -7247,31 +7247,31 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H39" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I39" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043091</v>
       </c>
       <c r="J39" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K39" t="n">
-        <v>335.7952991210681</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L39" t="n">
-        <v>551.5786779960904</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M39" t="n">
-        <v>803.3877032987878</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N39" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O39" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P39" t="n">
-        <v>1488.088567599444</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q39" t="n">
         <v>1614.947661807679</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>919.7301297068562</v>
+        <v>663.4738450083632</v>
       </c>
       <c r="C40" t="n">
-        <v>919.7301297068562</v>
+        <v>663.4738450083632</v>
       </c>
       <c r="D40" t="n">
-        <v>753.852136908379</v>
+        <v>497.5958522098859</v>
       </c>
       <c r="E40" t="n">
-        <v>584.0941331591162</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="F40" t="n">
         <v>407.3870791208724</v>
@@ -7329,55 +7329,55 @@
         <v>110.3018381127067</v>
       </c>
       <c r="I40" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J40" t="n">
-        <v>106.1122152511378</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K40" t="n">
-        <v>477.6707703898316</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L40" t="n">
-        <v>828.1746199579899</v>
+        <v>744.992999204955</v>
       </c>
       <c r="M40" t="n">
-        <v>1412.355695376305</v>
+        <v>875.5973915434845</v>
       </c>
       <c r="N40" t="n">
-        <v>1539.854607180194</v>
+        <v>1445.355106505019</v>
       </c>
       <c r="O40" t="n">
-        <v>1657.620488527956</v>
+        <v>1982.790237078562</v>
       </c>
       <c r="P40" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q40" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R40" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S40" t="n">
-        <v>2360.327577447736</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T40" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U40" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V40" t="n">
-        <v>1839.693721399886</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W40" t="n">
-        <v>1567.667316986177</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X40" t="n">
-        <v>1322.27556231959</v>
+        <v>890.893515694255</v>
       </c>
       <c r="Y40" t="n">
-        <v>1094.855891633698</v>
+        <v>663.4738450083632</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1495.863289652877</v>
+        <v>884.8517156860543</v>
       </c>
       <c r="C41" t="n">
-        <v>1495.863289652877</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="D41" t="n">
-        <v>1495.863289652877</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="E41" t="n">
-        <v>1062.088544811172</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F41" t="n">
-        <v>716.4307943255671</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G41" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H41" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I41" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J41" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K41" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L41" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M41" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N41" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O41" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P41" t="n">
         <v>2043.069798152528</v>
@@ -7435,28 +7435,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R41" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S41" t="n">
-        <v>2319.861207662533</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T41" t="n">
-        <v>2319.861207662533</v>
+        <v>2135.149204180618</v>
       </c>
       <c r="U41" t="n">
-        <v>2319.861207662533</v>
+        <v>2135.149204180618</v>
       </c>
       <c r="V41" t="n">
-        <v>2319.861207662533</v>
+        <v>2135.149204180618</v>
       </c>
       <c r="W41" t="n">
-        <v>1915.005753073566</v>
+        <v>1730.293749591651</v>
       </c>
       <c r="X41" t="n">
-        <v>1495.863289652877</v>
+        <v>1311.151286170962</v>
       </c>
       <c r="Y41" t="n">
-        <v>1495.863289652877</v>
+        <v>1311.151286170962</v>
       </c>
     </row>
     <row r="42">
@@ -7484,7 +7484,7 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H42" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I42" t="n">
         <v>81.42328772043084</v>
@@ -7493,19 +7493,19 @@
         <v>175.316627066898</v>
       </c>
       <c r="K42" t="n">
-        <v>335.7952991210681</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L42" t="n">
-        <v>551.5786779960904</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M42" t="n">
-        <v>803.3877032987878</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N42" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O42" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P42" t="n">
         <v>1488.088567599445</v>
@@ -7545,46 +7545,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.413848425154</v>
+        <v>616.0817647851416</v>
       </c>
       <c r="C43" t="n">
-        <v>753.852136908379</v>
+        <v>443.5200532683665</v>
       </c>
       <c r="D43" t="n">
-        <v>753.852136908379</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E43" t="n">
-        <v>584.0941331591162</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F43" t="n">
-        <v>407.3870791208724</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G43" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H43" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I43" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J43" t="n">
-        <v>106.1122152511378</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K43" t="n">
-        <v>393.4422361027634</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L43" t="n">
-        <v>935.5229194890223</v>
+        <v>744.992999204955</v>
       </c>
       <c r="M43" t="n">
-        <v>1066.127311827552</v>
+        <v>875.5973915434845</v>
       </c>
       <c r="N43" t="n">
-        <v>1635.885026789086</v>
+        <v>1445.355106505019</v>
       </c>
       <c r="O43" t="n">
-        <v>2173.320157362629</v>
+        <v>1982.790237078562</v>
       </c>
       <c r="P43" t="n">
         <v>2274.089213540313</v>
@@ -7593,10 +7593,10 @@
         <v>2343.856484770969</v>
       </c>
       <c r="R43" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S43" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T43" t="n">
         <v>2118.080353351143</v>
@@ -7611,10 +7611,10 @@
         <v>1280.711808856608</v>
       </c>
       <c r="X43" t="n">
-        <v>1035.32005419002</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y43" t="n">
-        <v>1035.32005419002</v>
+        <v>807.9003835041287</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1122.658563411105</v>
+        <v>1017.864239579285</v>
       </c>
       <c r="C44" t="n">
-        <v>684.5160905945286</v>
+        <v>579.7217667627087</v>
       </c>
       <c r="D44" t="n">
-        <v>684.5160905945286</v>
+        <v>579.7217667627087</v>
       </c>
       <c r="E44" t="n">
-        <v>684.5160905945286</v>
+        <v>579.7217667627087</v>
       </c>
       <c r="F44" t="n">
-        <v>256.6486610037363</v>
+        <v>579.7217667627087</v>
       </c>
       <c r="G44" t="n">
-        <v>47.20655154895472</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H44" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I44" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435802</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228011</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L44" t="n">
-        <v>805.4408022867018</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M44" t="n">
         <v>1131.588690455489</v>
@@ -7672,28 +7672,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R44" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S44" t="n">
-        <v>2319.861207662533</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T44" t="n">
-        <v>2319.861207662533</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U44" t="n">
-        <v>2319.861207662533</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V44" t="n">
-        <v>1957.24425759636</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="W44" t="n">
-        <v>1957.24425759636</v>
+        <v>1444.163810064193</v>
       </c>
       <c r="X44" t="n">
-        <v>1957.24425759636</v>
+        <v>1444.163810064193</v>
       </c>
       <c r="Y44" t="n">
-        <v>1548.958133896013</v>
+        <v>1444.163810064193</v>
       </c>
     </row>
     <row r="45">
@@ -7721,7 +7721,7 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H45" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I45" t="n">
         <v>81.42328772043084</v>
@@ -7730,13 +7730,13 @@
         <v>175.316627066898</v>
       </c>
       <c r="K45" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L45" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M45" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N45" t="n">
         <v>1061.861364220108</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>694.697370523135</v>
+        <v>1092.291841223631</v>
       </c>
       <c r="C46" t="n">
-        <v>522.1356590063599</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="D46" t="n">
-        <v>356.2576662078826</v>
+        <v>753.852136908379</v>
       </c>
       <c r="E46" t="n">
-        <v>356.2576662078826</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F46" t="n">
-        <v>179.5506121696388</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G46" t="n">
-        <v>179.5506121696388</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H46" t="n">
-        <v>47.20655154895472</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I46" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J46" t="n">
         <v>192.6919004158277</v>
@@ -7812,13 +7812,13 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L46" t="n">
-        <v>862.0820538119935</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M46" t="n">
-        <v>992.686446150523</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N46" t="n">
-        <v>1120.185357954412</v>
+        <v>1539.854607180195</v>
       </c>
       <c r="O46" t="n">
         <v>1657.620488527956</v>
@@ -7830,7 +7830,7 @@
         <v>2343.856484770969</v>
       </c>
       <c r="R46" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S46" t="n">
         <v>2215.901038951971</v>
@@ -7842,16 +7842,16 @@
         <v>1695.267182904121</v>
       </c>
       <c r="V46" t="n">
-        <v>1631.35381900831</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W46" t="n">
-        <v>1359.327414594601</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="X46" t="n">
-        <v>1113.935659928014</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="Y46" t="n">
-        <v>886.515989242122</v>
+        <v>1180.892004088659</v>
       </c>
     </row>
   </sheetData>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8850,25 +8850,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>69.27619576520556</v>
       </c>
       <c r="M13" t="n">
-        <v>458.158265737157</v>
+        <v>458.1582657371567</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P13" t="n">
-        <v>45.75904403825007</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>277.5337924960966</v>
+        <v>158.2045317475394</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>458.158265737157</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>141.4680432173438</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9324,7 +9324,7 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -9333,16 +9333,16 @@
         <v>458.1582657371569</v>
       </c>
       <c r="N19" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>68.57677528255635</v>
       </c>
       <c r="Q19" t="n">
-        <v>69.27619576520601</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9558,16 +9558,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>59.72999935692053</v>
+        <v>45.75904403825052</v>
       </c>
       <c r="M22" t="n">
-        <v>458.1582657371569</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
@@ -9576,7 +9576,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>169.8916917821538</v>
@@ -9637,10 +9637,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>187.2544722033711</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9655,13 +9655,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>456.0429799810086</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9795,19 +9795,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>169.3062583899062</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645587</v>
       </c>
       <c r="N25" t="n">
-        <v>3.518533120449547</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
         <v>423.9083325512944</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9892,10 +9892,10 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>456.0429799810086</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>16.39178053361684</v>
       </c>
       <c r="R26" t="n">
         <v>170.8626916697543</v>
@@ -10032,19 +10032,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>425.9527571284909</v>
+        <v>380.1894240459278</v>
       </c>
       <c r="O28" t="n">
         <v>423.9083325512944</v>
@@ -10111,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>117.1563429200475</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>509.7493287307154</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10123,13 +10123,13 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>148.2963841322176</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>478.6092875185457</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10269,16 +10269,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>20.91758768940753</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>256.7604858289869</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10366,10 +10366,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>187.2544722033713</v>
+        <v>81.10537790171065</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>545.8002937490523</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10506,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908067</v>
+        <v>20.91758768940753</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
@@ -10515,13 +10515,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>339.9726382326633</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
         <v>351.0170646165068</v>
@@ -10749,22 +10749,22 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N37" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512944</v>
+        <v>323.2928365343471</v>
       </c>
       <c r="P37" t="n">
-        <v>105.000237494321</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10983,25 +10983,25 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>228.9222706564246</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>458.1582657371569</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
-        <v>351.0170646165068</v>
+        <v>192.4544649334021</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11220,7 +11220,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>192.4544649334015</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>422.4342240080415</v>
@@ -11235,7 +11235,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>192.4544649334021</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -11460,16 +11460,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>175.7179764032063</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>177.1920849464598</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>351.0170646165068</v>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>410.1937988817581</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>421.9182721901103</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>419.7079110789993</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>417.5942214949872</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>411.7459793965837</v>
       </c>
       <c r="G11" t="n">
-        <v>345.6361556932422</v>
+        <v>383.664888509017</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>255.1815600432281</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23311,22 +23311,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>197.8107631172783</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>244.6372086654006</v>
+        <v>172.0055597150574</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>388.9641241447764</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>403.1082628881818</v>
       </c>
       <c r="Y11" t="n">
-        <v>392.3604865650425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>72.23491954436615</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>151.2509926853062</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>50.62155779981384</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>113.9238753606175</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>272.2431771499732</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>213.3026980807322</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,22 +23494,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>410.1937988817581</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>421.9182721901103</v>
       </c>
       <c r="D14" t="n">
-        <v>419.7079110789993</v>
+        <v>188.0759945653424</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>411.7459793965837</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>338.0714167115609</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23548,13 +23548,13 @@
         <v>28.2189301890504</v>
       </c>
       <c r="T14" t="n">
-        <v>197.8107631172783</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>244.6372086654006</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>347.1480046672111</v>
       </c>
       <c r="W14" t="n">
         <v>388.9641241447764</v>
@@ -23658,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>71.81885222572373</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>163.0972075995607</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>151.2509926853062</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>119.1778441161766</v>
       </c>
       <c r="I16" t="n">
         <v>50.62155779981384</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>35.89414717279247</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>231.0950612216211</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23734,10 +23734,10 @@
         <v>410.1937988817581</v>
       </c>
       <c r="C17" t="n">
-        <v>421.9182721901103</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>419.7079110789993</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23746,7 +23746,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>333.4778406651237</v>
+        <v>383.664888509017</v>
       </c>
       <c r="H17" t="n">
         <v>255.1815600432281</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>28.21893018905039</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>244.6372086654006</v>
+        <v>170.5725449707769</v>
       </c>
       <c r="V17" t="n">
-        <v>347.1480046672111</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>388.9641241447764</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>403.1082628881818</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>392.3604865650425</v>
       </c>
     </row>
     <row r="18">
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>50.62155779981383</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,10 +23946,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>179.3252458391337</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>128.7036880393198</v>
       </c>
       <c r="W19" t="n">
         <v>257.4633644712708</v>
@@ -23968,19 +23968,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>194.278630290827</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>346.5592725517373</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>419.7079110789993</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>417.5942214949872</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>411.7459793965837</v>
       </c>
       <c r="G20" t="n">
         <v>383.664888509017</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>28.2189301890504</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>197.8107631172783</v>
       </c>
       <c r="U20" t="n">
-        <v>244.6372086654006</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>347.1480046672111</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>388.9641241447764</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>392.3604865650425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>178.0576566334966</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>152.3764369721919</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>156.2176478134695</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>163.0972075995607</v>
       </c>
       <c r="G22" t="n">
-        <v>106.3545167047159</v>
+        <v>66.85219709755995</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>50.62155779981383</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>222.2252701259764</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>419.7079110789993</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>417.5942214949872</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>383.664888509017</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>255.1815600432281</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>28.2189301890504</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>197.8107631172783</v>
       </c>
       <c r="U23" t="n">
-        <v>221.5003914676532</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>347.1480046672111</v>
@@ -24271,10 +24271,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>403.1082628881818</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>392.3604865650425</v>
       </c>
     </row>
     <row r="24">
@@ -24451,13 +24451,13 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24499,19 +24499,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>25.15924396492767</v>
+        <v>301.5737278228142</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -24682,22 +24682,22 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>98.64744732485917</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,16 +24730,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>349.4259600043794</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24922,16 +24922,16 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>395.5076644073176</v>
+        <v>86.47440739038581</v>
       </c>
       <c r="H32" t="n">
         <v>267.0243359415286</v>
@@ -24970,22 +24970,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U32" t="n">
-        <v>51.01072857561348</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -25159,10 +25159,10 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>267.0243359415286</v>
+        <v>57.92552441760148</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>40.061706087351</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T35" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V35" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>5.547789919012189</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -25326,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>87.40645861671715</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25365,22 +25365,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>105.2993565597139</v>
       </c>
     </row>
     <row r="38">
@@ -25390,19 +25390,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>235.7775000555623</v>
       </c>
       <c r="G38" t="n">
         <v>395.5076644073176</v>
@@ -25441,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>247.3762485303467</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.52592822422403</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
@@ -25557,10 +25557,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>78.7537383536467</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>81.38758231413539</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25681,7 +25681,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>209.6535390155789</v>
+        <v>26.7886555684822</v>
       </c>
       <c r="U41" t="n">
         <v>256.4799845637012</v>
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.08328882457984</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>114.8692533779064</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25876,13 +25876,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>188.1599760470838</v>
+        <v>135.3419372872298</v>
       </c>
       <c r="H44" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25918,22 +25918,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>102.1862712954197</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>62.46433369811444</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26082,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>220.8117227914212</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>275169.778847679</v>
+        <v>275169.7788476789</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>275169.7788476789</v>
+        <v>275169.778847679</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>275169.7788476789</v>
+        <v>275169.778847679</v>
       </c>
     </row>
     <row r="9">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>261637.5125397267</v>
+        <v>261637.5125397269</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>261637.5125397267</v>
+        <v>261637.5125397268</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>510300.017067547</v>
+        <v>510300.0170675469</v>
       </c>
       <c r="C2" t="n">
-        <v>510300.0170675468</v>
+        <v>510300.0170675469</v>
       </c>
       <c r="D2" t="n">
-        <v>510300.0170675468</v>
+        <v>510300.0170675469</v>
       </c>
       <c r="E2" t="n">
         <v>323754.7281014369</v>
@@ -26328,34 +26328,34 @@
         <v>323754.7281014369</v>
       </c>
       <c r="G2" t="n">
-        <v>323754.728101437</v>
+        <v>323754.7281014369</v>
       </c>
       <c r="H2" t="n">
-        <v>323754.7281014369</v>
+        <v>323754.7281014372</v>
       </c>
       <c r="I2" t="n">
-        <v>381661.5131908974</v>
+        <v>381661.5131908973</v>
       </c>
       <c r="J2" t="n">
-        <v>368793.8634663579</v>
+        <v>368793.8634663577</v>
       </c>
       <c r="K2" t="n">
-        <v>368793.8634663579</v>
+        <v>368793.8634663578</v>
       </c>
       <c r="L2" t="n">
-        <v>368793.8634663579</v>
+        <v>368793.8634663578</v>
       </c>
       <c r="M2" t="n">
         <v>306730.2640365937</v>
       </c>
       <c r="N2" t="n">
-        <v>306730.2640365937</v>
+        <v>306730.2640365938</v>
       </c>
       <c r="O2" t="n">
         <v>306730.2640365937</v>
       </c>
       <c r="P2" t="n">
-        <v>306730.2640365937</v>
+        <v>306730.2640365938</v>
       </c>
     </row>
     <row r="3">
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>42102.11971426842</v>
+        <v>42102.11971426838</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="C4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="D4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="E4" t="n">
         <v>28260.20390398549</v>
@@ -26435,22 +26435,22 @@
         <v>28260.20390398547</v>
       </c>
       <c r="H4" t="n">
-        <v>28260.20390398547</v>
+        <v>28260.20390398548</v>
       </c>
       <c r="I4" t="n">
         <v>58397.93087307987</v>
       </c>
       <c r="J4" t="n">
+        <v>50865.18133183767</v>
+      </c>
+      <c r="K4" t="n">
         <v>50865.18133183766</v>
       </c>
-      <c r="K4" t="n">
-        <v>50865.18133183767</v>
-      </c>
       <c r="L4" t="n">
-        <v>50865.18133183767</v>
+        <v>50865.18133183766</v>
       </c>
       <c r="M4" t="n">
-        <v>18294.04639895361</v>
+        <v>18294.04639895362</v>
       </c>
       <c r="N4" t="n">
         <v>18294.04639895361</v>
@@ -26459,7 +26459,7 @@
         <v>18294.04639895361</v>
       </c>
       <c r="P4" t="n">
-        <v>18294.04639895361</v>
+        <v>18294.04639895362</v>
       </c>
     </row>
     <row r="5">
@@ -26484,13 +26484,13 @@
         <v>47046.69153663203</v>
       </c>
       <c r="G5" t="n">
-        <v>47046.69153663204</v>
+        <v>47046.69153663203</v>
       </c>
       <c r="H5" t="n">
-        <v>47046.69153663204</v>
+        <v>47046.69153663205</v>
       </c>
       <c r="I5" t="n">
-        <v>56672.89209479601</v>
+        <v>56672.892094796</v>
       </c>
       <c r="J5" t="n">
         <v>55677.28176780177</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>177941.7007557141</v>
+        <v>177909.7940382125</v>
       </c>
       <c r="C6" t="n">
-        <v>177941.700755714</v>
+        <v>177909.7940382125</v>
       </c>
       <c r="D6" t="n">
-        <v>177941.700755714</v>
+        <v>177909.7940382125</v>
       </c>
       <c r="E6" t="n">
-        <v>-312161.5890484967</v>
+        <v>-312671.8170197575</v>
       </c>
       <c r="F6" t="n">
-        <v>248447.8326608193</v>
+        <v>247937.6046895586</v>
       </c>
       <c r="G6" t="n">
-        <v>248447.8326608195</v>
+        <v>247937.6046895586</v>
       </c>
       <c r="H6" t="n">
-        <v>248447.8326608194</v>
+        <v>247937.6046895588</v>
       </c>
       <c r="I6" t="n">
-        <v>224488.5705087531</v>
+        <v>224126.8214736191</v>
       </c>
       <c r="J6" t="n">
-        <v>262251.4003667184</v>
+        <v>261856.6573579316</v>
       </c>
       <c r="K6" t="n">
-        <v>262251.4003667184</v>
+        <v>261856.6573579317</v>
       </c>
       <c r="L6" t="n">
-        <v>262251.4003667184</v>
+        <v>261856.6573579317</v>
       </c>
       <c r="M6" t="n">
-        <v>134789.7575632054</v>
+        <v>134235.8771199834</v>
       </c>
       <c r="N6" t="n">
-        <v>242385.1364280023</v>
+        <v>241831.2559847804</v>
       </c>
       <c r="O6" t="n">
-        <v>242385.1364280023</v>
+        <v>241831.2559847804</v>
       </c>
       <c r="P6" t="n">
-        <v>242385.1364280023</v>
+        <v>241831.2559847805</v>
       </c>
     </row>
   </sheetData>
@@ -26798,7 +26798,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619339</v>
       </c>
       <c r="F4" t="n">
         <v>590.081894361934</v>
@@ -26807,7 +26807,7 @@
         <v>590.081894361934</v>
       </c>
       <c r="H4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="I4" t="n">
         <v>748.4075614369992</v>
@@ -26822,16 +26822,16 @@
         <v>748.4075614369992</v>
       </c>
       <c r="M4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="O4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="P4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619341</v>
       </c>
     </row>
   </sheetData>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619339</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>158.3256670750652</v>
+        <v>158.3256670750651</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619339</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -32226,13 +32226,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H17" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I17" t="n">
-        <v>72.33176314699058</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J17" t="n">
         <v>159.239166912571</v>
@@ -32247,7 +32247,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
         <v>316.116681354841</v>
@@ -32256,19 +32256,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q17" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R17" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S17" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T17" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U17" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,25 +32311,25 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K18" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L18" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P18" t="n">
         <v>191.6912126917232</v>
@@ -32338,7 +32338,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S18" t="n">
         <v>18.64606288183764</v>
@@ -32347,7 +32347,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H19" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I19" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
         <v>97.77787936116989</v>
@@ -32405,16 +32405,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N19" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O19" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P19" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R19" t="n">
         <v>37.84111043195198</v>
@@ -32426,7 +32426,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,13 +32463,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H20" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I20" t="n">
-        <v>72.33176314699058</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J20" t="n">
         <v>159.239166912571</v>
@@ -32484,7 +32484,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
         <v>316.116681354841</v>
@@ -32493,19 +32493,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q20" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R20" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S20" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T20" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U20" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,25 +32548,25 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K21" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L21" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O21" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P21" t="n">
         <v>191.6912126917232</v>
@@ -32575,7 +32575,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S21" t="n">
         <v>18.64606288183764</v>
@@ -32584,7 +32584,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H22" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I22" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
         <v>97.77787936116989</v>
@@ -32642,16 +32642,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N22" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O22" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P22" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R22" t="n">
         <v>37.84111043195198</v>
@@ -32663,7 +32663,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,13 +32700,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H23" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I23" t="n">
-        <v>72.33176314699058</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J23" t="n">
         <v>159.239166912571</v>
@@ -32721,7 +32721,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N23" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
         <v>316.116681354841</v>
@@ -32730,19 +32730,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q23" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R23" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S23" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T23" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U23" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,25 +32785,25 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K24" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L24" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M24" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O24" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P24" t="n">
         <v>191.6912126917232</v>
@@ -32812,7 +32812,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S24" t="n">
         <v>18.64606288183764</v>
@@ -32821,7 +32821,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H25" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I25" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J25" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K25" t="n">
         <v>97.77787936116989</v>
@@ -32879,16 +32879,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N25" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O25" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P25" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R25" t="n">
         <v>37.84111043195198</v>
@@ -32900,7 +32900,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33174,13 +33174,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H29" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I29" t="n">
-        <v>72.33176314699058</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J29" t="n">
         <v>159.239166912571</v>
@@ -33195,7 +33195,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N29" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
         <v>316.116681354841</v>
@@ -33204,19 +33204,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q29" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R29" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S29" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T29" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U29" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33259,25 +33259,25 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K30" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L30" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M30" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N30" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O30" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P30" t="n">
         <v>191.6912126917232</v>
@@ -33286,7 +33286,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R30" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S30" t="n">
         <v>18.64606288183764</v>
@@ -33295,7 +33295,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H31" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I31" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J31" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K31" t="n">
         <v>97.77787936116989</v>
@@ -33353,16 +33353,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N31" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O31" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P31" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R31" t="n">
         <v>37.84111043195198</v>
@@ -33374,7 +33374,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,13 +33411,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H32" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I32" t="n">
-        <v>72.33176314699058</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J32" t="n">
         <v>159.239166912571</v>
@@ -33432,7 +33432,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N32" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
         <v>316.116681354841</v>
@@ -33441,19 +33441,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q32" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R32" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S32" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T32" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U32" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33496,25 +33496,25 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K33" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L33" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M33" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N33" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O33" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P33" t="n">
         <v>191.6912126917232</v>
@@ -33523,7 +33523,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S33" t="n">
         <v>18.64606288183764</v>
@@ -33532,7 +33532,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H34" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I34" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J34" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K34" t="n">
         <v>97.77787936116989</v>
@@ -33590,16 +33590,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N34" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O34" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P34" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R34" t="n">
         <v>37.84111043195198</v>
@@ -33611,7 +33611,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,13 +33648,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H35" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I35" t="n">
-        <v>72.33176314699058</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J35" t="n">
         <v>159.239166912571</v>
@@ -33669,7 +33669,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N35" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
         <v>316.116681354841</v>
@@ -33678,19 +33678,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q35" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R35" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S35" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T35" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U35" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33733,25 +33733,25 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K36" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L36" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M36" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N36" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O36" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P36" t="n">
         <v>191.6912126917232</v>
@@ -33760,7 +33760,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S36" t="n">
         <v>18.64606288183764</v>
@@ -33769,7 +33769,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H37" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I37" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J37" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
         <v>97.77787936116989</v>
@@ -33827,16 +33827,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N37" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O37" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P37" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R37" t="n">
         <v>37.84111043195198</v>
@@ -33848,7 +33848,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,13 +33885,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H38" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I38" t="n">
-        <v>72.33176314699058</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J38" t="n">
         <v>159.239166912571</v>
@@ -33906,7 +33906,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N38" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
         <v>316.116681354841</v>
@@ -33915,19 +33915,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q38" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R38" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S38" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T38" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U38" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33970,25 +33970,25 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K39" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L39" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M39" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N39" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O39" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P39" t="n">
         <v>191.6912126917232</v>
@@ -33997,7 +33997,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S39" t="n">
         <v>18.64606288183764</v>
@@ -34006,7 +34006,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H40" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I40" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J40" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
         <v>97.77787936116989</v>
@@ -34064,16 +34064,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N40" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O40" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P40" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R40" t="n">
         <v>37.84111043195198</v>
@@ -34085,7 +34085,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,13 +34122,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H41" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I41" t="n">
-        <v>72.33176314699058</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J41" t="n">
         <v>159.239166912571</v>
@@ -34143,7 +34143,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N41" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
         <v>316.116681354841</v>
@@ -34152,19 +34152,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q41" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R41" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S41" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T41" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U41" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34207,25 +34207,25 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K42" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L42" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M42" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N42" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O42" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P42" t="n">
         <v>191.6912126917232</v>
@@ -34234,7 +34234,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S42" t="n">
         <v>18.64606288183764</v>
@@ -34243,7 +34243,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H43" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I43" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J43" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K43" t="n">
         <v>97.77787936116989</v>
@@ -34301,16 +34301,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N43" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O43" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P43" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R43" t="n">
         <v>37.84111043195198</v>
@@ -34322,7 +34322,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,13 +34359,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H44" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I44" t="n">
-        <v>72.33176314699058</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J44" t="n">
         <v>159.239166912571</v>
@@ -34380,7 +34380,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N44" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O44" t="n">
         <v>316.116681354841</v>
@@ -34389,19 +34389,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q44" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R44" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S44" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T44" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U44" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34444,25 +34444,25 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K45" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L45" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M45" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N45" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O45" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P45" t="n">
         <v>191.6912126917232</v>
@@ -34471,7 +34471,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S45" t="n">
         <v>18.64606288183764</v>
@@ -34480,7 +34480,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,16 +34517,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H46" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I46" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J46" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K46" t="n">
         <v>97.77787936116989</v>
@@ -34538,16 +34538,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N46" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O46" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P46" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R46" t="n">
         <v>37.84111043195198</v>
@@ -34559,7 +34559,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>71.91914166785918</v>
       </c>
       <c r="J11" t="n">
-        <v>159.2391669125714</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062836</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766671</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M11" t="n">
         <v>329.4423112816031</v>
       </c>
       <c r="N11" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994719</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R11" t="n">
-        <v>117.8551356405455</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,19 +35488,19 @@
         <v>34.56235976916778</v>
       </c>
       <c r="J12" t="n">
-        <v>94.8417569156242</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K12" t="n">
         <v>162.099668741586</v>
       </c>
       <c r="L12" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M12" t="n">
         <v>254.3525508108054</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811312</v>
       </c>
       <c r="O12" t="n">
         <v>238.8413159742731</v>
@@ -35512,7 +35512,7 @@
         <v>128.1404992002367</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233713</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>146.9548978453262</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K13" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L13" t="n">
-        <v>125.1220218366645</v>
+        <v>194.3982176018701</v>
       </c>
       <c r="M13" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619339</v>
       </c>
       <c r="N13" t="n">
-        <v>575.5128433954892</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O13" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561045</v>
       </c>
       <c r="P13" t="n">
-        <v>147.5459694702533</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q13" t="n">
-        <v>240.36368292423</v>
+        <v>70.47199114207615</v>
       </c>
       <c r="R13" t="n">
         <v>16.63746735027013</v>
@@ -35646,22 +35646,22 @@
         <v>71.91914166785918</v>
       </c>
       <c r="J14" t="n">
-        <v>159.2391669125713</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062836</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766671</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816031</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994719</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P14" t="n">
         <v>269.7982739184536</v>
@@ -35728,16 +35728,16 @@
         <v>94.84175691562335</v>
       </c>
       <c r="K15" t="n">
-        <v>162.0996687415869</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L15" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M15" t="n">
         <v>254.3525508108054</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811312</v>
       </c>
       <c r="O15" t="n">
         <v>238.8413159742731</v>
@@ -35749,7 +35749,7 @@
         <v>128.1404992002367</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233713</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K16" t="n">
-        <v>375.3116718572664</v>
+        <v>255.9824111087092</v>
       </c>
       <c r="L16" t="n">
-        <v>125.1220218366645</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M16" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N16" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O16" t="n">
-        <v>260.4234789221537</v>
+        <v>118.95543570481</v>
       </c>
       <c r="P16" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q16" t="n">
-        <v>240.36368292423</v>
+        <v>70.47199114207615</v>
       </c>
       <c r="R16" t="n">
         <v>16.63746735027013</v>
@@ -35880,16 +35880,16 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J17" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
         <v>238.6582327062837</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
         <v>329.4423112816032</v>
@@ -35898,16 +35898,16 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R17" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,19 +35962,19 @@
         <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K18" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L18" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O18" t="n">
         <v>238.8413159742734</v>
@@ -35986,7 +35986,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36044,28 +36044,28 @@
         <v>146.9548978453262</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116988</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L19" t="n">
         <v>125.1220218366645</v>
       </c>
       <c r="M19" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N19" t="n">
-        <v>575.5128433954891</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O19" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P19" t="n">
-        <v>101.7869254320035</v>
+        <v>170.3637007145596</v>
       </c>
       <c r="Q19" t="n">
-        <v>139.7481869072822</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R19" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J20" t="n">
         <v>159.239166912571</v>
@@ -36135,13 +36135,13 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q20" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R20" t="n">
         <v>117.855135640546</v>
@@ -36199,16 +36199,16 @@
         <v>34.5623597691678</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K21" t="n">
-        <v>162.0996687415862</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L21" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N21" t="n">
         <v>261.0845059811313</v>
@@ -36278,31 +36278,31 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624556</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116988</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L22" t="n">
-        <v>184.8520211935851</v>
+        <v>170.8810658749151</v>
       </c>
       <c r="M22" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N22" t="n">
-        <v>575.5128433954891</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O22" t="n">
         <v>118.9554357048098</v>
       </c>
       <c r="P22" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
         <v>240.36368292423</v>
       </c>
       <c r="R22" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36354,16 +36354,16 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J23" t="n">
-        <v>159.239166912571</v>
+        <v>598.8903663599629</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062837</v>
+        <v>425.9127049096548</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M23" t="n">
         <v>329.4423112816032</v>
@@ -36375,13 +36375,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P23" t="n">
-        <v>725.8412538994621</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q23" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R23" t="n">
-        <v>288.7178273103004</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>94.84175691562336</v>
       </c>
       <c r="K24" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L24" t="n">
         <v>217.963008964669</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>59.50067040624557</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K25" t="n">
-        <v>375.3116718572664</v>
+        <v>267.0841377510761</v>
       </c>
       <c r="L25" t="n">
-        <v>547.5562458447059</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M25" t="n">
-        <v>596.048746989336</v>
+        <v>596.0487469893359</v>
       </c>
       <c r="N25" t="n">
-        <v>132.305312720338</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O25" t="n">
         <v>542.8637682561043</v>
@@ -36539,7 +36539,7 @@
         <v>240.36368292423</v>
       </c>
       <c r="R25" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36594,10 +36594,10 @@
         <v>71.91914166785919</v>
       </c>
       <c r="J26" t="n">
-        <v>159.239166912571</v>
+        <v>598.8903663599629</v>
       </c>
       <c r="K26" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L26" t="n">
         <v>296.0766412766673</v>
@@ -36609,13 +36609,13 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P26" t="n">
-        <v>725.8412538994621</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q26" t="n">
-        <v>202.6072676879471</v>
+        <v>218.999048221564</v>
       </c>
       <c r="R26" t="n">
         <v>288.7178273103004</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916772</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K27" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L27" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M27" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O27" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P27" t="n">
         <v>191.6912126917232</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K28" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L28" t="n">
-        <v>125.1220218366646</v>
+        <v>547.5562458447059</v>
       </c>
       <c r="M28" t="n">
-        <v>596.048746989336</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N28" t="n">
-        <v>554.7395367283793</v>
+        <v>508.9762036458162</v>
       </c>
       <c r="O28" t="n">
         <v>542.8637682561043</v>
@@ -36828,28 +36828,28 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J29" t="n">
-        <v>159.239166912571</v>
+        <v>276.3955098326185</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062837</v>
+        <v>748.4075614369992</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M29" t="n">
         <v>329.4423112816032</v>
       </c>
       <c r="N29" t="n">
-        <v>483.0694164316897</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P29" t="n">
-        <v>748.4075614369992</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q29" t="n">
         <v>202.6072676879471</v>
@@ -36913,7 +36913,7 @@
         <v>94.84175691562336</v>
       </c>
       <c r="K30" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L30" t="n">
         <v>217.963008964669</v>
@@ -36989,16 +36989,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>59.50067040624557</v>
+        <v>80.4182580956531</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116989</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L31" t="n">
-        <v>381.8825076656514</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M31" t="n">
-        <v>596.0487469893359</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N31" t="n">
         <v>575.5128433954892</v>
@@ -37013,7 +37013,7 @@
         <v>240.36368292423</v>
       </c>
       <c r="R31" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37065,16 +37065,16 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J32" t="n">
-        <v>598.8903663599629</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K32" t="n">
         <v>238.6582327062837</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M32" t="n">
         <v>329.4423112816032</v>
@@ -37083,13 +37083,13 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P32" t="n">
-        <v>457.0527461218248</v>
+        <v>350.9036518201642</v>
       </c>
       <c r="Q32" t="n">
-        <v>202.6072676879471</v>
+        <v>748.4075614369995</v>
       </c>
       <c r="R32" t="n">
         <v>117.855135640546</v>
@@ -37150,7 +37150,7 @@
         <v>94.84175691562336</v>
       </c>
       <c r="K33" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L33" t="n">
         <v>217.963008964669</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>146.9548978453262</v>
+        <v>80.4182580956531</v>
       </c>
       <c r="K34" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L34" t="n">
-        <v>547.5562458447059</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M34" t="n">
-        <v>596.048746989336</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N34" t="n">
-        <v>468.7594178325517</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O34" t="n">
-        <v>118.95543570481</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P34" t="n">
         <v>452.8039900485105</v>
@@ -37250,7 +37250,7 @@
         <v>240.36368292423</v>
       </c>
       <c r="R34" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J35" t="n">
         <v>159.239166912571</v>
@@ -37329,7 +37329,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R35" t="n">
-        <v>117.8551356405455</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,22 +37381,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K36" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L36" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M36" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N36" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O36" t="n">
         <v>238.8413159742734</v>
@@ -37408,7 +37408,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37469,25 +37469,25 @@
         <v>97.77787936116988</v>
       </c>
       <c r="L37" t="n">
-        <v>547.556245844706</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M37" t="n">
-        <v>131.9236286247772</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N37" t="n">
         <v>575.512843395489</v>
       </c>
       <c r="O37" t="n">
-        <v>542.8637682561043</v>
+        <v>442.2482722391569</v>
       </c>
       <c r="P37" t="n">
-        <v>206.7871629263245</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R37" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J38" t="n">
         <v>159.239166912571</v>
@@ -37548,19 +37548,19 @@
         <v>238.6582327062837</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816031</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N38" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q38" t="n">
         <v>202.6072676879471</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916786</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K39" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L39" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M39" t="n">
         <v>254.3525508108055</v>
@@ -37645,7 +37645,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,31 +37700,31 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>59.50067040624556</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L40" t="n">
-        <v>354.0442924930892</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M40" t="n">
-        <v>590.081894361934</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N40" t="n">
-        <v>128.7867795998884</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O40" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P40" t="n">
-        <v>452.8039900485103</v>
+        <v>294.2413903654056</v>
       </c>
       <c r="Q40" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R40" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37776,28 +37776,28 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J41" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L41" t="n">
         <v>296.0766412766673</v>
       </c>
       <c r="M41" t="n">
-        <v>329.4423112816028</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N41" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q41" t="n">
         <v>202.6072676879471</v>
@@ -37855,28 +37855,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K42" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L42" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M42" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N42" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O42" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P42" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q42" t="n">
         <v>128.1404992002369</v>
@@ -37937,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>59.50067040624556</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K43" t="n">
-        <v>290.2323442945714</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L43" t="n">
-        <v>547.556245844706</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M43" t="n">
         <v>131.9236286247772</v>
@@ -37952,16 +37952,16 @@
         <v>575.512843395489</v>
       </c>
       <c r="O43" t="n">
-        <v>542.8637682561045</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P43" t="n">
-        <v>101.7869254320035</v>
+        <v>294.2413903654056</v>
       </c>
       <c r="Q43" t="n">
         <v>70.4719911420766</v>
       </c>
       <c r="R43" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38013,16 +38013,16 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J44" t="n">
-        <v>159.2391669125707</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K44" t="n">
         <v>238.6582327062837</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M44" t="n">
         <v>329.4423112816032</v>
@@ -38034,7 +38034,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q44" t="n">
         <v>202.6072676879471</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K45" t="n">
-        <v>162.0996687415862</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L45" t="n">
         <v>217.963008964669</v>
@@ -38107,7 +38107,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N45" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O45" t="n">
         <v>238.8413159742734</v>
@@ -38180,16 +38180,16 @@
         <v>375.3116718572664</v>
       </c>
       <c r="L46" t="n">
-        <v>300.8399982398709</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M46" t="n">
-        <v>131.9236286247772</v>
+        <v>309.1157135712369</v>
       </c>
       <c r="N46" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O46" t="n">
-        <v>542.8637682561043</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P46" t="n">
         <v>452.8039900485103</v>
@@ -38198,7 +38198,7 @@
         <v>240.36368292423</v>
       </c>
       <c r="R46" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
